--- a/Code/Results/Cases/Case_1_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000223452997193</v>
+        <v>1.044402855926531</v>
       </c>
       <c r="D2">
-        <v>1.030662969793091</v>
+        <v>1.03940056114219</v>
       </c>
       <c r="E2">
-        <v>1.005572328454784</v>
+        <v>1.04216980029393</v>
       </c>
       <c r="F2">
-        <v>1.008266118388074</v>
+        <v>1.052252153643817</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047916623694574</v>
+        <v>1.042790746720722</v>
       </c>
       <c r="J2">
-        <v>1.022397482678019</v>
+        <v>1.049468130274581</v>
       </c>
       <c r="K2">
-        <v>1.041711030445175</v>
+        <v>1.042185855742719</v>
       </c>
       <c r="L2">
-        <v>1.016954573956229</v>
+        <v>1.044947245901242</v>
       </c>
       <c r="M2">
-        <v>1.019611481846441</v>
+        <v>1.055001400733993</v>
       </c>
       <c r="N2">
-        <v>1.023849404374052</v>
+        <v>1.050958495395248</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008321529509618</v>
+        <v>1.045951135086813</v>
       </c>
       <c r="D3">
-        <v>1.034608191955799</v>
+        <v>1.040130348693367</v>
       </c>
       <c r="E3">
-        <v>1.012406276458223</v>
+        <v>1.043512521010866</v>
       </c>
       <c r="F3">
-        <v>1.016608764838797</v>
+        <v>1.053918601910671</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05083257617816</v>
+        <v>1.043245340974933</v>
       </c>
       <c r="J3">
-        <v>1.028587883509276</v>
+        <v>1.050660688316559</v>
       </c>
       <c r="K3">
-        <v>1.044816605902917</v>
+        <v>1.042726066261725</v>
       </c>
       <c r="L3">
-        <v>1.022882839979362</v>
+        <v>1.046099349593009</v>
       </c>
       <c r="M3">
-        <v>1.027033453988492</v>
+        <v>1.056478467404034</v>
       </c>
       <c r="N3">
-        <v>1.030048596284538</v>
+        <v>1.052152747006434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013388180985008</v>
+        <v>1.046950823501874</v>
       </c>
       <c r="D4">
-        <v>1.037085003845883</v>
+        <v>1.040601539992064</v>
       </c>
       <c r="E4">
-        <v>1.016686899394421</v>
+        <v>1.044379482102912</v>
       </c>
       <c r="F4">
-        <v>1.021834564263436</v>
+        <v>1.054995133406189</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05264477874902</v>
+        <v>1.043537212512548</v>
       </c>
       <c r="J4">
-        <v>1.032455507040205</v>
+        <v>1.051429841727428</v>
       </c>
       <c r="K4">
-        <v>1.046755536435154</v>
+        <v>1.043073923294603</v>
       </c>
       <c r="L4">
-        <v>1.026588014968427</v>
+        <v>1.046842439025337</v>
       </c>
       <c r="M4">
-        <v>1.031676418359928</v>
+        <v>1.057431991774201</v>
       </c>
       <c r="N4">
-        <v>1.033921712284504</v>
+        <v>1.05292299270337</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01547925307755</v>
+        <v>1.047370587420457</v>
       </c>
       <c r="D5">
-        <v>1.038109012999059</v>
+        <v>1.040799384556608</v>
       </c>
       <c r="E5">
-        <v>1.018454631823092</v>
+        <v>1.044743512984528</v>
       </c>
       <c r="F5">
-        <v>1.02399276708431</v>
+        <v>1.055447293671014</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053389684741538</v>
+        <v>1.043659372220928</v>
       </c>
       <c r="J5">
-        <v>1.034050345207702</v>
+        <v>1.051752600288951</v>
       </c>
       <c r="K5">
-        <v>1.04755463302197</v>
+        <v>1.043219759099529</v>
       </c>
       <c r="L5">
-        <v>1.028116165864477</v>
+        <v>1.04715426685775</v>
       </c>
       <c r="M5">
-        <v>1.033592430375381</v>
+        <v>1.057832327656569</v>
       </c>
       <c r="N5">
-        <v>1.035518815305129</v>
+        <v>1.053246209619071</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015828139055792</v>
+        <v>1.047441038301018</v>
       </c>
       <c r="D6">
-        <v>1.038279963695399</v>
+        <v>1.040832589273547</v>
       </c>
       <c r="E6">
-        <v>1.01874962965921</v>
+        <v>1.044804609823186</v>
       </c>
       <c r="F6">
-        <v>1.02435293810196</v>
+        <v>1.055523189424479</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053513789264715</v>
+        <v>1.043679851615422</v>
       </c>
       <c r="J6">
-        <v>1.034316353754047</v>
+        <v>1.05180675828923</v>
       </c>
       <c r="K6">
-        <v>1.047687888632668</v>
+        <v>1.04324422199772</v>
       </c>
       <c r="L6">
-        <v>1.02837106850079</v>
+        <v>1.047206591086582</v>
       </c>
       <c r="M6">
-        <v>1.033912095636186</v>
+        <v>1.057899515261432</v>
       </c>
       <c r="N6">
-        <v>1.035785201614122</v>
+        <v>1.053300444529923</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013416271838624</v>
+        <v>1.046956434380188</v>
       </c>
       <c r="D7">
-        <v>1.037098753258725</v>
+        <v>1.040604184557729</v>
       </c>
       <c r="E7">
-        <v>1.016710642517982</v>
+        <v>1.044384348018836</v>
       </c>
       <c r="F7">
-        <v>1.021863551223428</v>
+        <v>1.05500117680573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0526547976458</v>
+        <v>1.043538846946738</v>
       </c>
       <c r="J7">
-        <v>1.032476937182219</v>
+        <v>1.05143415676583</v>
       </c>
       <c r="K7">
-        <v>1.046766275899552</v>
+        <v>1.043075873541284</v>
       </c>
       <c r="L7">
-        <v>1.026608547858749</v>
+        <v>1.046846607902913</v>
       </c>
       <c r="M7">
-        <v>1.031702158342514</v>
+        <v>1.057437343135833</v>
       </c>
       <c r="N7">
-        <v>1.033943172859778</v>
+        <v>1.05292731386962</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002997743492567</v>
+        <v>1.04492655571022</v>
       </c>
       <c r="D8">
-        <v>1.03201261750961</v>
+        <v>1.039647410956091</v>
       </c>
       <c r="E8">
-        <v>1.007912441900654</v>
+        <v>1.042623970794599</v>
       </c>
       <c r="F8">
-        <v>1.011122883716755</v>
+        <v>1.052815710958253</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048918113933506</v>
+        <v>1.042944853201469</v>
       </c>
       <c r="J8">
-        <v>1.024519343522353</v>
+        <v>1.049871685498039</v>
       </c>
       <c r="K8">
-        <v>1.04277573808309</v>
+        <v>1.042368774991136</v>
       </c>
       <c r="L8">
-        <v>1.018986290299725</v>
+        <v>1.04533710580555</v>
       </c>
       <c r="M8">
-        <v>1.022154267209613</v>
+        <v>1.05550105125889</v>
       </c>
       <c r="N8">
-        <v>1.025974278504166</v>
+        <v>1.051362623713412</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9831821035855066</v>
+        <v>1.041332718762332</v>
       </c>
       <c r="D9">
-        <v>1.02241999595483</v>
+        <v>1.037953458494549</v>
       </c>
       <c r="E9">
-        <v>0.9912243827717467</v>
+        <v>1.039507292146605</v>
       </c>
       <c r="F9">
-        <v>0.9907459470545422</v>
+        <v>1.048950591216955</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041715716307924</v>
+        <v>1.041880549308918</v>
       </c>
       <c r="J9">
-        <v>1.009343050254991</v>
+        <v>1.047098830583828</v>
       </c>
       <c r="K9">
-        <v>1.035159503372884</v>
+        <v>1.041109676980027</v>
       </c>
       <c r="L9">
-        <v>1.004461461144127</v>
+        <v>1.042658470975006</v>
       </c>
       <c r="M9">
-        <v>1.003990970618501</v>
+        <v>1.052071493295541</v>
       </c>
       <c r="N9">
-        <v>1.010776433159619</v>
+        <v>1.048585831027171</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9687839053244399</v>
+        <v>1.038924809534277</v>
       </c>
       <c r="D10">
-        <v>1.01552437488039</v>
+        <v>1.036818629733331</v>
       </c>
       <c r="E10">
-        <v>0.9791394415119609</v>
+        <v>1.037419144955484</v>
       </c>
       <c r="F10">
-        <v>0.9759770903730207</v>
+        <v>1.046363726707226</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036424104534981</v>
+        <v>1.041158976983166</v>
       </c>
       <c r="J10">
-        <v>0.9982932182540112</v>
+        <v>1.045236608095619</v>
       </c>
       <c r="K10">
-        <v>1.029618877244905</v>
+        <v>1.040261305987708</v>
       </c>
       <c r="L10">
-        <v>0.9938958389462131</v>
+        <v>1.040859680743157</v>
       </c>
       <c r="M10">
-        <v>0.9907940685488814</v>
+        <v>1.049772701022048</v>
       </c>
       <c r="N10">
-        <v>0.9997109091297643</v>
+        <v>1.04672096396943</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9622110953519099</v>
+        <v>1.037879165876507</v>
       </c>
       <c r="D11">
-        <v>1.012399143448259</v>
+        <v>1.036325890701041</v>
       </c>
       <c r="E11">
-        <v>0.9736348339687537</v>
+        <v>1.036512384800182</v>
       </c>
       <c r="F11">
-        <v>0.9692444459726648</v>
+        <v>1.045241035714614</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033996408659051</v>
+        <v>1.040843629206563</v>
       </c>
       <c r="J11">
-        <v>0.9932450477827026</v>
+        <v>1.044426897745709</v>
       </c>
       <c r="K11">
-        <v>1.027090957928631</v>
+        <v>1.039891786545608</v>
       </c>
       <c r="L11">
-        <v>0.9890716959993916</v>
+        <v>1.04007758989855</v>
       </c>
       <c r="M11">
-        <v>0.9847706472035203</v>
+        <v>1.04877421591787</v>
       </c>
       <c r="N11">
-        <v>0.9946555696773534</v>
+        <v>1.045910103737947</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9597130803713608</v>
+        <v>1.037490303776657</v>
       </c>
       <c r="D12">
-        <v>1.011215269459329</v>
+        <v>1.036142659472495</v>
       </c>
       <c r="E12">
-        <v>0.9715448738943455</v>
+        <v>1.036175176573372</v>
       </c>
       <c r="F12">
-        <v>0.9666871450522158</v>
+        <v>1.044823620417425</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033072118968618</v>
+        <v>1.040726055102466</v>
       </c>
       <c r="J12">
-        <v>0.9913260375788312</v>
+        <v>1.044125621602736</v>
       </c>
       <c r="K12">
-        <v>1.026130711329192</v>
+        <v>1.039754201376109</v>
       </c>
       <c r="L12">
-        <v>0.9872383169266548</v>
+        <v>1.03978659635163</v>
       </c>
       <c r="M12">
-        <v>0.9824816604201196</v>
+        <v>1.0484028575537</v>
       </c>
       <c r="N12">
-        <v>0.9927338342588788</v>
+        <v>1.045608399748295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9602515760997218</v>
+        <v>1.037573737189782</v>
       </c>
       <c r="D13">
-        <v>1.011470293304875</v>
+        <v>1.036181972565549</v>
       </c>
       <c r="E13">
-        <v>0.9719953071990138</v>
+        <v>1.036247527010785</v>
       </c>
       <c r="F13">
-        <v>0.967238354296972</v>
+        <v>1.044913175630711</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033271438381184</v>
+        <v>1.04075129511594</v>
       </c>
       <c r="J13">
-        <v>0.9917397347828962</v>
+        <v>1.044190269756222</v>
       </c>
       <c r="K13">
-        <v>1.026337683802835</v>
+        <v>1.039783728812175</v>
       </c>
       <c r="L13">
-        <v>0.9876335319170474</v>
+        <v>1.039849037782531</v>
       </c>
       <c r="M13">
-        <v>0.9829750841764329</v>
+        <v>1.048482536939559</v>
       </c>
       <c r="N13">
-        <v>0.9931481189604255</v>
+        <v>1.045673139709574</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.962005799495503</v>
+        <v>1.037847031940669</v>
       </c>
       <c r="D14">
-        <v>1.012301766929831</v>
+        <v>1.036310748971142</v>
       </c>
       <c r="E14">
-        <v>0.9734630298274933</v>
+        <v>1.036484519220884</v>
       </c>
       <c r="F14">
-        <v>0.9690342479108581</v>
+        <v>1.045206540228242</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033920479272795</v>
+        <v>1.040833919490819</v>
       </c>
       <c r="J14">
-        <v>0.9930873445923556</v>
+        <v>1.044402004699716</v>
       </c>
       <c r="K14">
-        <v>1.027012029586529</v>
+        <v>1.039880420447289</v>
       </c>
       <c r="L14">
-        <v>0.9889210201320838</v>
+        <v>1.040053546333171</v>
       </c>
       <c r="M14">
-        <v>0.9845825248373529</v>
+        <v>1.048743529109951</v>
       </c>
       <c r="N14">
-        <v>0.9944976425303873</v>
+        <v>1.045885175340975</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9630789489669161</v>
+        <v>1.038015356069641</v>
       </c>
       <c r="D15">
-        <v>1.012810946618701</v>
+        <v>1.036390064972999</v>
       </c>
       <c r="E15">
-        <v>0.9743611930244086</v>
+        <v>1.036630485027102</v>
       </c>
       <c r="F15">
-        <v>0.9701330823726928</v>
+        <v>1.045387238725032</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034317322016127</v>
+        <v>1.040884768687571</v>
       </c>
       <c r="J15">
-        <v>0.9939116945482654</v>
+        <v>1.044532393234736</v>
       </c>
       <c r="K15">
-        <v>1.027424636114057</v>
+        <v>1.039939951633945</v>
       </c>
       <c r="L15">
-        <v>0.9897086560291221</v>
+        <v>1.040179485575939</v>
       </c>
       <c r="M15">
-        <v>0.9855659126924335</v>
+        <v>1.048904271496942</v>
       </c>
       <c r="N15">
-        <v>0.995323163157789</v>
+        <v>1.046015749042669</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9692125228579677</v>
+        <v>1.038994141140675</v>
       </c>
       <c r="D16">
-        <v>1.015728678850641</v>
+        <v>1.036851302480144</v>
       </c>
       <c r="E16">
-        <v>0.9794986723532266</v>
+        <v>1.037479268484089</v>
       </c>
       <c r="F16">
-        <v>0.9764163282255668</v>
+        <v>1.046438180932206</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03658218175242</v>
+        <v>1.041179844100596</v>
       </c>
       <c r="J16">
-        <v>0.9986223444593937</v>
+        <v>1.045290274394188</v>
       </c>
       <c r="K16">
-        <v>1.029783776562292</v>
+        <v>1.040285783792899</v>
       </c>
       <c r="L16">
-        <v>0.9942104209511595</v>
+        <v>1.040911517291146</v>
       </c>
       <c r="M16">
-        <v>0.9911868871883009</v>
+        <v>1.049838901016052</v>
       </c>
       <c r="N16">
-        <v>1.00004050273211</v>
+        <v>1.046774706480298</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9729655945667274</v>
+        <v>1.039607294493732</v>
       </c>
       <c r="D17">
-        <v>1.01752020372897</v>
+        <v>1.037140260798826</v>
       </c>
       <c r="E17">
-        <v>0.9826455742432477</v>
+        <v>1.038010990713067</v>
       </c>
       <c r="F17">
-        <v>0.9802634518112651</v>
+        <v>1.04709671424576</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037965005593066</v>
+        <v>1.041364157386502</v>
       </c>
       <c r="J17">
-        <v>1.001503825488527</v>
+        <v>1.045764768116696</v>
       </c>
       <c r="K17">
-        <v>1.03122785900473</v>
+        <v>1.040502132096101</v>
       </c>
       <c r="L17">
-        <v>0.9969648890749847</v>
+        <v>1.041369837637526</v>
       </c>
       <c r="M17">
-        <v>0.9946266160197658</v>
+        <v>1.050424333024872</v>
       </c>
       <c r="N17">
-        <v>1.002926075794815</v>
+        <v>1.047249874038318</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9751224907347025</v>
+        <v>1.039964647555582</v>
       </c>
       <c r="D18">
-        <v>1.018551877736118</v>
+        <v>1.037308675186851</v>
       </c>
       <c r="E18">
-        <v>0.9844552256949609</v>
+        <v>1.038320887153338</v>
       </c>
       <c r="F18">
-        <v>0.9824752719592048</v>
+        <v>1.04748057931611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03875857700143</v>
+        <v>1.0414713844521</v>
       </c>
       <c r="J18">
-        <v>1.003159442553099</v>
+        <v>1.046041209145785</v>
       </c>
       <c r="K18">
-        <v>1.032057885131988</v>
+        <v>1.040628115329544</v>
       </c>
       <c r="L18">
-        <v>0.9985477876741332</v>
+        <v>1.041636859729888</v>
       </c>
       <c r="M18">
-        <v>0.9966035206543861</v>
+        <v>1.05076550800051</v>
       </c>
       <c r="N18">
-        <v>1.004584044025521</v>
+        <v>1.047526707645376</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9758526339962076</v>
+        <v>1.040086447080355</v>
       </c>
       <c r="D19">
-        <v>1.018901455588973</v>
+        <v>1.037366078164401</v>
       </c>
       <c r="E19">
-        <v>0.985068004703299</v>
+        <v>1.038426512034675</v>
       </c>
       <c r="F19">
-        <v>0.9832241543893699</v>
+        <v>1.047611426005549</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039027015271794</v>
+        <v>1.041507898775576</v>
       </c>
       <c r="J19">
-        <v>1.003719827417598</v>
+        <v>1.046135413870196</v>
       </c>
       <c r="K19">
-        <v>1.032338872721956</v>
+        <v>1.040671036993276</v>
       </c>
       <c r="L19">
-        <v>0.9990836019235235</v>
+        <v>1.041727855321774</v>
       </c>
       <c r="M19">
-        <v>0.9972727464885841</v>
+        <v>1.050881789727797</v>
       </c>
       <c r="N19">
-        <v>1.005145224700804</v>
+        <v>1.047621046151301</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9725662955155142</v>
+        <v>1.039541538914663</v>
       </c>
       <c r="D20">
-        <v>1.017329378988794</v>
+        <v>1.037109271786219</v>
       </c>
       <c r="E20">
-        <v>0.9823106488093226</v>
+        <v>1.03795396768666</v>
       </c>
       <c r="F20">
-        <v>0.9798540552607811</v>
+        <v>1.047026085420557</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037818000753236</v>
+        <v>1.041344411279748</v>
       </c>
       <c r="J20">
-        <v>1.001197295230093</v>
+        <v>1.045713892922603</v>
       </c>
       <c r="K20">
-        <v>1.03107420599494</v>
+        <v>1.040478941619793</v>
       </c>
       <c r="L20">
-        <v>0.9966718430671733</v>
+        <v>1.041320696167416</v>
       </c>
       <c r="M20">
-        <v>0.9942606447270477</v>
+        <v>1.050361552579866</v>
       </c>
       <c r="N20">
-        <v>1.002619110228255</v>
+        <v>1.047198926595613</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9614908372365973</v>
+        <v>1.037766566342198</v>
       </c>
       <c r="D21">
-        <v>1.012057572588343</v>
+        <v>1.036272833241331</v>
       </c>
       <c r="E21">
-        <v>0.9730321122254679</v>
+        <v>1.036414741963179</v>
       </c>
       <c r="F21">
-        <v>0.9685070126347216</v>
+        <v>1.045120162754686</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033729993031115</v>
+        <v>1.040809600846476</v>
       </c>
       <c r="J21">
-        <v>0.9926917568310087</v>
+        <v>1.04433966829273</v>
       </c>
       <c r="K21">
-        <v>1.026814055460627</v>
+        <v>1.039851956284817</v>
       </c>
       <c r="L21">
-        <v>0.9885430676434092</v>
+        <v>1.039993337266441</v>
       </c>
       <c r="M21">
-        <v>0.9841106444224738</v>
+        <v>1.048666686671508</v>
       </c>
       <c r="N21">
-        <v>0.9941014929890448</v>
+        <v>1.04582275040914</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9541963228281005</v>
+        <v>1.036647882857313</v>
       </c>
       <c r="D22">
-        <v>1.008608488189993</v>
+        <v>1.035745737642723</v>
       </c>
       <c r="E22">
-        <v>0.966933444270708</v>
+        <v>1.035444667096489</v>
       </c>
       <c r="F22">
-        <v>0.961042217829513</v>
+        <v>1.043919525008214</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031028054172624</v>
+        <v>1.040470797230636</v>
       </c>
       <c r="J22">
-        <v>0.9870873574911014</v>
+        <v>1.043472662032575</v>
       </c>
       <c r="K22">
-        <v>1.0240113166895</v>
+        <v>1.039455839432165</v>
       </c>
       <c r="L22">
-        <v>0.9831897032682834</v>
+        <v>1.039155933465833</v>
       </c>
       <c r="M22">
-        <v>0.9774270619798718</v>
+        <v>1.047598294138335</v>
       </c>
       <c r="N22">
-        <v>0.9884891347592414</v>
+        <v>1.044954512900648</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9580968294268373</v>
+        <v>1.037241177048564</v>
       </c>
       <c r="D23">
-        <v>1.010450444994797</v>
+        <v>1.03602527516293</v>
       </c>
       <c r="E23">
-        <v>0.9701932614957461</v>
+        <v>1.035959143662548</v>
       </c>
       <c r="F23">
-        <v>0.9650329538317262</v>
+        <v>1.044556228995119</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032473652792168</v>
+        <v>1.040650646175146</v>
       </c>
       <c r="J23">
-        <v>0.9900843073546297</v>
+        <v>1.043932563808774</v>
       </c>
       <c r="K23">
-        <v>1.02550959724067</v>
+        <v>1.039666010275351</v>
       </c>
       <c r="L23">
-        <v>0.9860521346716523</v>
+        <v>1.039600129344861</v>
       </c>
       <c r="M23">
-        <v>0.9810007302285678</v>
+        <v>1.048164935132749</v>
       </c>
       <c r="N23">
-        <v>0.9914903406353305</v>
+        <v>1.045415067790121</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9727468206742286</v>
+        <v>1.039571251923205</v>
       </c>
       <c r="D24">
-        <v>1.017415645398242</v>
+        <v>1.037123274789373</v>
       </c>
       <c r="E24">
-        <v>0.9824620668528955</v>
+        <v>1.037979734704616</v>
       </c>
       <c r="F24">
-        <v>0.9800391428424929</v>
+        <v>1.047058000307485</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037884465955259</v>
+        <v>1.041353334559922</v>
       </c>
       <c r="J24">
-        <v>1.001335880314908</v>
+        <v>1.045736882231444</v>
       </c>
       <c r="K24">
-        <v>1.031143672992238</v>
+        <v>1.040489421043965</v>
       </c>
       <c r="L24">
-        <v>0.9968043309973043</v>
+        <v>1.041342902035543</v>
       </c>
       <c r="M24">
-        <v>0.9944261019694827</v>
+        <v>1.050389921280251</v>
       </c>
       <c r="N24">
-        <v>1.002757892119786</v>
+        <v>1.04722194855191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9884973015285268</v>
+        <v>1.042263883167769</v>
       </c>
       <c r="D25">
-        <v>1.024981911780725</v>
+        <v>1.038392348746496</v>
       </c>
       <c r="E25">
-        <v>0.9956945032171785</v>
+        <v>1.040314817718145</v>
       </c>
       <c r="F25">
-        <v>0.9962055737058991</v>
+        <v>1.049951551080654</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043658011327984</v>
+        <v>1.042157804398556</v>
       </c>
       <c r="J25">
-        <v>1.013418076657977</v>
+        <v>1.047818050391391</v>
       </c>
       <c r="K25">
-        <v>1.037204409973762</v>
+        <v>1.041436753239799</v>
       </c>
       <c r="L25">
-        <v>1.008360026203055</v>
+        <v>1.043353225485922</v>
       </c>
       <c r="M25">
-        <v>1.008863080226586</v>
+        <v>1.052960260271083</v>
       </c>
       <c r="N25">
-        <v>1.014857246567509</v>
+        <v>1.049306072209357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044402855926531</v>
+        <v>1.000223452997193</v>
       </c>
       <c r="D2">
-        <v>1.03940056114219</v>
+        <v>1.030662969793091</v>
       </c>
       <c r="E2">
-        <v>1.04216980029393</v>
+        <v>1.005572328454784</v>
       </c>
       <c r="F2">
-        <v>1.052252153643817</v>
+        <v>1.008266118388074</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042790746720722</v>
+        <v>1.047916623694574</v>
       </c>
       <c r="J2">
-        <v>1.049468130274581</v>
+        <v>1.022397482678019</v>
       </c>
       <c r="K2">
-        <v>1.042185855742719</v>
+        <v>1.041711030445175</v>
       </c>
       <c r="L2">
-        <v>1.044947245901242</v>
+        <v>1.01695457395623</v>
       </c>
       <c r="M2">
-        <v>1.055001400733993</v>
+        <v>1.019611481846442</v>
       </c>
       <c r="N2">
-        <v>1.050958495395248</v>
+        <v>1.023849404374052</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045951135086813</v>
+        <v>1.008321529509619</v>
       </c>
       <c r="D3">
-        <v>1.040130348693367</v>
+        <v>1.0346081919558</v>
       </c>
       <c r="E3">
-        <v>1.043512521010866</v>
+        <v>1.012406276458224</v>
       </c>
       <c r="F3">
-        <v>1.053918601910671</v>
+        <v>1.016608764838798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043245340974933</v>
+        <v>1.050832576178161</v>
       </c>
       <c r="J3">
-        <v>1.050660688316559</v>
+        <v>1.028587883509277</v>
       </c>
       <c r="K3">
-        <v>1.042726066261725</v>
+        <v>1.044816605902918</v>
       </c>
       <c r="L3">
-        <v>1.046099349593009</v>
+        <v>1.022882839979362</v>
       </c>
       <c r="M3">
-        <v>1.056478467404034</v>
+        <v>1.027033453988493</v>
       </c>
       <c r="N3">
-        <v>1.052152747006434</v>
+        <v>1.030048596284539</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046950823501874</v>
+        <v>1.013388180985008</v>
       </c>
       <c r="D4">
-        <v>1.040601539992064</v>
+        <v>1.037085003845884</v>
       </c>
       <c r="E4">
-        <v>1.044379482102912</v>
+        <v>1.016686899394422</v>
       </c>
       <c r="F4">
-        <v>1.054995133406189</v>
+        <v>1.021834564263437</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043537212512548</v>
+        <v>1.05264477874902</v>
       </c>
       <c r="J4">
-        <v>1.051429841727428</v>
+        <v>1.032455507040205</v>
       </c>
       <c r="K4">
-        <v>1.043073923294603</v>
+        <v>1.046755536435155</v>
       </c>
       <c r="L4">
-        <v>1.046842439025337</v>
+        <v>1.026588014968428</v>
       </c>
       <c r="M4">
-        <v>1.057431991774201</v>
+        <v>1.031676418359929</v>
       </c>
       <c r="N4">
-        <v>1.05292299270337</v>
+        <v>1.033921712284504</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047370587420457</v>
+        <v>1.01547925307755</v>
       </c>
       <c r="D5">
-        <v>1.040799384556608</v>
+        <v>1.038109012999059</v>
       </c>
       <c r="E5">
-        <v>1.044743512984528</v>
+        <v>1.018454631823091</v>
       </c>
       <c r="F5">
-        <v>1.055447293671014</v>
+        <v>1.02399276708431</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043659372220928</v>
+        <v>1.053389684741538</v>
       </c>
       <c r="J5">
-        <v>1.051752600288951</v>
+        <v>1.034050345207702</v>
       </c>
       <c r="K5">
-        <v>1.043219759099529</v>
+        <v>1.04755463302197</v>
       </c>
       <c r="L5">
-        <v>1.04715426685775</v>
+        <v>1.028116165864477</v>
       </c>
       <c r="M5">
-        <v>1.057832327656569</v>
+        <v>1.033592430375381</v>
       </c>
       <c r="N5">
-        <v>1.053246209619071</v>
+        <v>1.03551881530513</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047441038301018</v>
+        <v>1.015828139055791</v>
       </c>
       <c r="D6">
-        <v>1.040832589273547</v>
+        <v>1.038279963695399</v>
       </c>
       <c r="E6">
-        <v>1.044804609823186</v>
+        <v>1.01874962965921</v>
       </c>
       <c r="F6">
-        <v>1.055523189424479</v>
+        <v>1.02435293810196</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043679851615422</v>
+        <v>1.053513789264715</v>
       </c>
       <c r="J6">
-        <v>1.05180675828923</v>
+        <v>1.034316353754046</v>
       </c>
       <c r="K6">
-        <v>1.04324422199772</v>
+        <v>1.047687888632668</v>
       </c>
       <c r="L6">
-        <v>1.047206591086582</v>
+        <v>1.02837106850079</v>
       </c>
       <c r="M6">
-        <v>1.057899515261432</v>
+        <v>1.033912095636185</v>
       </c>
       <c r="N6">
-        <v>1.053300444529923</v>
+        <v>1.035785201614121</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046956434380188</v>
+        <v>1.013416271838625</v>
       </c>
       <c r="D7">
-        <v>1.040604184557729</v>
+        <v>1.037098753258725</v>
       </c>
       <c r="E7">
-        <v>1.044384348018836</v>
+        <v>1.016710642517983</v>
       </c>
       <c r="F7">
-        <v>1.05500117680573</v>
+        <v>1.02186355122343</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043538846946738</v>
+        <v>1.052654797645801</v>
       </c>
       <c r="J7">
-        <v>1.05143415676583</v>
+        <v>1.03247693718222</v>
       </c>
       <c r="K7">
-        <v>1.043075873541284</v>
+        <v>1.046766275899552</v>
       </c>
       <c r="L7">
-        <v>1.046846607902913</v>
+        <v>1.02660854785875</v>
       </c>
       <c r="M7">
-        <v>1.057437343135833</v>
+        <v>1.031702158342515</v>
       </c>
       <c r="N7">
-        <v>1.05292731386962</v>
+        <v>1.033943172859778</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04492655571022</v>
+        <v>1.002997743492566</v>
       </c>
       <c r="D8">
-        <v>1.039647410956091</v>
+        <v>1.032012617509609</v>
       </c>
       <c r="E8">
-        <v>1.042623970794599</v>
+        <v>1.007912441900653</v>
       </c>
       <c r="F8">
-        <v>1.052815710958253</v>
+        <v>1.011122883716754</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042944853201469</v>
+        <v>1.048918113933506</v>
       </c>
       <c r="J8">
-        <v>1.049871685498039</v>
+        <v>1.024519343522353</v>
       </c>
       <c r="K8">
-        <v>1.042368774991136</v>
+        <v>1.04277573808309</v>
       </c>
       <c r="L8">
-        <v>1.04533710580555</v>
+        <v>1.018986290299724</v>
       </c>
       <c r="M8">
-        <v>1.05550105125889</v>
+        <v>1.022154267209612</v>
       </c>
       <c r="N8">
-        <v>1.051362623713412</v>
+        <v>1.025974278504165</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041332718762332</v>
+        <v>0.9831821035855081</v>
       </c>
       <c r="D9">
-        <v>1.037953458494549</v>
+        <v>1.022419995954831</v>
       </c>
       <c r="E9">
-        <v>1.039507292146605</v>
+        <v>0.9912243827717478</v>
       </c>
       <c r="F9">
-        <v>1.048950591216955</v>
+        <v>0.9907459470545436</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041880549308918</v>
+        <v>1.041715716307925</v>
       </c>
       <c r="J9">
-        <v>1.047098830583828</v>
+        <v>1.009343050254992</v>
       </c>
       <c r="K9">
-        <v>1.041109676980027</v>
+        <v>1.035159503372885</v>
       </c>
       <c r="L9">
-        <v>1.042658470975006</v>
+        <v>1.004461461144128</v>
       </c>
       <c r="M9">
-        <v>1.052071493295541</v>
+        <v>1.003990970618502</v>
       </c>
       <c r="N9">
-        <v>1.048585831027171</v>
+        <v>1.010776433159621</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038924809534277</v>
+        <v>0.9687839053244393</v>
       </c>
       <c r="D10">
-        <v>1.036818629733331</v>
+        <v>1.01552437488039</v>
       </c>
       <c r="E10">
-        <v>1.037419144955484</v>
+        <v>0.97913944151196</v>
       </c>
       <c r="F10">
-        <v>1.046363726707226</v>
+        <v>0.9759770903730202</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041158976983166</v>
+        <v>1.03642410453498</v>
       </c>
       <c r="J10">
-        <v>1.045236608095619</v>
+        <v>0.9982932182540106</v>
       </c>
       <c r="K10">
-        <v>1.040261305987708</v>
+        <v>1.029618877244904</v>
       </c>
       <c r="L10">
-        <v>1.040859680743157</v>
+        <v>0.9938958389462124</v>
       </c>
       <c r="M10">
-        <v>1.049772701022048</v>
+        <v>0.990794068548881</v>
       </c>
       <c r="N10">
-        <v>1.04672096396943</v>
+        <v>0.9997109091297638</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.037879165876507</v>
+        <v>0.9622110953519096</v>
       </c>
       <c r="D11">
-        <v>1.036325890701041</v>
+        <v>1.012399143448259</v>
       </c>
       <c r="E11">
-        <v>1.036512384800182</v>
+        <v>0.9736348339687535</v>
       </c>
       <c r="F11">
-        <v>1.045241035714614</v>
+        <v>0.9692444459726645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040843629206563</v>
+        <v>1.03399640865905</v>
       </c>
       <c r="J11">
-        <v>1.044426897745709</v>
+        <v>0.9932450477827023</v>
       </c>
       <c r="K11">
-        <v>1.039891786545608</v>
+        <v>1.027090957928631</v>
       </c>
       <c r="L11">
-        <v>1.04007758989855</v>
+        <v>0.9890716959993914</v>
       </c>
       <c r="M11">
-        <v>1.04877421591787</v>
+        <v>0.9847706472035199</v>
       </c>
       <c r="N11">
-        <v>1.045910103737947</v>
+        <v>0.9946555696773535</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037490303776657</v>
+        <v>0.9597130803713594</v>
       </c>
       <c r="D12">
-        <v>1.036142659472495</v>
+        <v>1.011215269459328</v>
       </c>
       <c r="E12">
-        <v>1.036175176573372</v>
+        <v>0.9715448738943441</v>
       </c>
       <c r="F12">
-        <v>1.044823620417425</v>
+        <v>0.9666871450522145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040726055102466</v>
+        <v>1.033072118968617</v>
       </c>
       <c r="J12">
-        <v>1.044125621602736</v>
+        <v>0.99132603757883</v>
       </c>
       <c r="K12">
-        <v>1.039754201376109</v>
+        <v>1.026130711329191</v>
       </c>
       <c r="L12">
-        <v>1.03978659635163</v>
+        <v>0.9872383169266533</v>
       </c>
       <c r="M12">
-        <v>1.0484028575537</v>
+        <v>0.9824816604201184</v>
       </c>
       <c r="N12">
-        <v>1.045608399748295</v>
+        <v>0.9927338342588777</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037573737189782</v>
+        <v>0.9602515760997203</v>
       </c>
       <c r="D13">
-        <v>1.036181972565549</v>
+        <v>1.011470293304874</v>
       </c>
       <c r="E13">
-        <v>1.036247527010785</v>
+        <v>0.9719953071990121</v>
       </c>
       <c r="F13">
-        <v>1.044913175630711</v>
+        <v>0.967238354296971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04075129511594</v>
+        <v>1.033271438381183</v>
       </c>
       <c r="J13">
-        <v>1.044190269756222</v>
+        <v>0.9917397347828948</v>
       </c>
       <c r="K13">
-        <v>1.039783728812175</v>
+        <v>1.026337683802834</v>
       </c>
       <c r="L13">
-        <v>1.039849037782531</v>
+        <v>0.9876335319170457</v>
       </c>
       <c r="M13">
-        <v>1.048482536939559</v>
+        <v>0.9829750841764315</v>
       </c>
       <c r="N13">
-        <v>1.045673139709574</v>
+        <v>0.9931481189604241</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037847031940669</v>
+        <v>0.9620057994955026</v>
       </c>
       <c r="D14">
-        <v>1.036310748971142</v>
+        <v>1.012301766929831</v>
       </c>
       <c r="E14">
-        <v>1.036484519220884</v>
+        <v>0.9734630298274928</v>
       </c>
       <c r="F14">
-        <v>1.045206540228242</v>
+        <v>0.9690342479108572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040833919490819</v>
+        <v>1.033920479272795</v>
       </c>
       <c r="J14">
-        <v>1.044402004699716</v>
+        <v>0.9930873445923553</v>
       </c>
       <c r="K14">
-        <v>1.039880420447289</v>
+        <v>1.027012029586529</v>
       </c>
       <c r="L14">
-        <v>1.040053546333171</v>
+        <v>0.9889210201320834</v>
       </c>
       <c r="M14">
-        <v>1.048743529109951</v>
+        <v>0.9845825248373523</v>
       </c>
       <c r="N14">
-        <v>1.045885175340975</v>
+        <v>0.9944976425303869</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038015356069641</v>
+        <v>0.9630789489669144</v>
       </c>
       <c r="D15">
-        <v>1.036390064972999</v>
+        <v>1.012810946618701</v>
       </c>
       <c r="E15">
-        <v>1.036630485027102</v>
+        <v>0.9743611930244075</v>
       </c>
       <c r="F15">
-        <v>1.045387238725032</v>
+        <v>0.9701330823726915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040884768687571</v>
+        <v>1.034317322016127</v>
       </c>
       <c r="J15">
-        <v>1.044532393234736</v>
+        <v>0.9939116945482641</v>
       </c>
       <c r="K15">
-        <v>1.039939951633945</v>
+        <v>1.027424636114057</v>
       </c>
       <c r="L15">
-        <v>1.040179485575939</v>
+        <v>0.9897086560291208</v>
       </c>
       <c r="M15">
-        <v>1.048904271496942</v>
+        <v>0.985565912692432</v>
       </c>
       <c r="N15">
-        <v>1.046015749042669</v>
+        <v>0.9953231631577875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038994141140675</v>
+        <v>0.9692125228579677</v>
       </c>
       <c r="D16">
-        <v>1.036851302480144</v>
+        <v>1.015728678850641</v>
       </c>
       <c r="E16">
-        <v>1.037479268484089</v>
+        <v>0.9794986723532269</v>
       </c>
       <c r="F16">
-        <v>1.046438180932206</v>
+        <v>0.9764163282255669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041179844100596</v>
+        <v>1.03658218175242</v>
       </c>
       <c r="J16">
-        <v>1.045290274394188</v>
+        <v>0.9986223444593938</v>
       </c>
       <c r="K16">
-        <v>1.040285783792899</v>
+        <v>1.029783776562292</v>
       </c>
       <c r="L16">
-        <v>1.040911517291146</v>
+        <v>0.99421042095116</v>
       </c>
       <c r="M16">
-        <v>1.049838901016052</v>
+        <v>0.9911868871883012</v>
       </c>
       <c r="N16">
-        <v>1.046774706480298</v>
+        <v>1.00004050273211</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039607294493732</v>
+        <v>0.9729655945667263</v>
       </c>
       <c r="D17">
-        <v>1.037140260798826</v>
+        <v>1.01752020372897</v>
       </c>
       <c r="E17">
-        <v>1.038010990713067</v>
+        <v>0.9826455742432466</v>
       </c>
       <c r="F17">
-        <v>1.04709671424576</v>
+        <v>0.9802634518112644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041364157386502</v>
+        <v>1.037965005593065</v>
       </c>
       <c r="J17">
-        <v>1.045764768116696</v>
+        <v>1.001503825488526</v>
       </c>
       <c r="K17">
-        <v>1.040502132096101</v>
+        <v>1.03122785900473</v>
       </c>
       <c r="L17">
-        <v>1.041369837637526</v>
+        <v>0.9969648890749834</v>
       </c>
       <c r="M17">
-        <v>1.050424333024872</v>
+        <v>0.9946266160197652</v>
       </c>
       <c r="N17">
-        <v>1.047249874038318</v>
+        <v>1.002926075794814</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039964647555582</v>
+        <v>0.9751224907347023</v>
       </c>
       <c r="D18">
-        <v>1.037308675186851</v>
+        <v>1.018551877736118</v>
       </c>
       <c r="E18">
-        <v>1.038320887153338</v>
+        <v>0.9844552256949605</v>
       </c>
       <c r="F18">
-        <v>1.04748057931611</v>
+        <v>0.982475271959205</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0414713844521</v>
+        <v>1.03875857700143</v>
       </c>
       <c r="J18">
-        <v>1.046041209145785</v>
+        <v>1.003159442553099</v>
       </c>
       <c r="K18">
-        <v>1.040628115329544</v>
+        <v>1.032057885131988</v>
       </c>
       <c r="L18">
-        <v>1.041636859729888</v>
+        <v>0.9985477876741329</v>
       </c>
       <c r="M18">
-        <v>1.05076550800051</v>
+        <v>0.9966035206543862</v>
       </c>
       <c r="N18">
-        <v>1.047526707645376</v>
+        <v>1.00458404402552</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040086447080355</v>
+        <v>0.975852633996206</v>
       </c>
       <c r="D19">
-        <v>1.037366078164401</v>
+        <v>1.018901455588972</v>
       </c>
       <c r="E19">
-        <v>1.038426512034675</v>
+        <v>0.9850680047032976</v>
       </c>
       <c r="F19">
-        <v>1.047611426005549</v>
+        <v>0.9832241543893684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041507898775576</v>
+        <v>1.039027015271793</v>
       </c>
       <c r="J19">
-        <v>1.046135413870196</v>
+        <v>1.003719827417597</v>
       </c>
       <c r="K19">
-        <v>1.040671036993276</v>
+        <v>1.032338872721955</v>
       </c>
       <c r="L19">
-        <v>1.041727855321774</v>
+        <v>0.9990836019235222</v>
       </c>
       <c r="M19">
-        <v>1.050881789727797</v>
+        <v>0.9972727464885827</v>
       </c>
       <c r="N19">
-        <v>1.047621046151301</v>
+        <v>1.005145224700803</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039541538914663</v>
+        <v>0.9725662955155128</v>
       </c>
       <c r="D20">
-        <v>1.037109271786219</v>
+        <v>1.017329378988794</v>
       </c>
       <c r="E20">
-        <v>1.03795396768666</v>
+        <v>0.9823106488093208</v>
       </c>
       <c r="F20">
-        <v>1.047026085420557</v>
+        <v>0.9798540552607796</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041344411279748</v>
+        <v>1.037818000753235</v>
       </c>
       <c r="J20">
-        <v>1.045713892922603</v>
+        <v>1.001197295230092</v>
       </c>
       <c r="K20">
-        <v>1.040478941619793</v>
+        <v>1.03107420599494</v>
       </c>
       <c r="L20">
-        <v>1.041320696167416</v>
+        <v>0.9966718430671717</v>
       </c>
       <c r="M20">
-        <v>1.050361552579866</v>
+        <v>0.994260644727046</v>
       </c>
       <c r="N20">
-        <v>1.047198926595613</v>
+        <v>1.002619110228253</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037766566342198</v>
+        <v>0.9614908372365959</v>
       </c>
       <c r="D21">
-        <v>1.036272833241331</v>
+        <v>1.012057572588343</v>
       </c>
       <c r="E21">
-        <v>1.036414741963179</v>
+        <v>0.9730321122254664</v>
       </c>
       <c r="F21">
-        <v>1.045120162754686</v>
+        <v>0.9685070126347207</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040809600846476</v>
+        <v>1.033729993031114</v>
       </c>
       <c r="J21">
-        <v>1.04433966829273</v>
+        <v>0.9926917568310075</v>
       </c>
       <c r="K21">
-        <v>1.039851956284817</v>
+        <v>1.026814055460627</v>
       </c>
       <c r="L21">
-        <v>1.039993337266441</v>
+        <v>0.9885430676434079</v>
       </c>
       <c r="M21">
-        <v>1.048666686671508</v>
+        <v>0.984110644422473</v>
       </c>
       <c r="N21">
-        <v>1.04582275040914</v>
+        <v>0.9941014929890433</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036647882857313</v>
+        <v>0.9541963228281012</v>
       </c>
       <c r="D22">
-        <v>1.035745737642723</v>
+        <v>1.008608488189993</v>
       </c>
       <c r="E22">
-        <v>1.035444667096489</v>
+        <v>0.9669334442707086</v>
       </c>
       <c r="F22">
-        <v>1.043919525008214</v>
+        <v>0.9610422178295139</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040470797230636</v>
+        <v>1.031028054172624</v>
       </c>
       <c r="J22">
-        <v>1.043472662032575</v>
+        <v>0.9870873574911023</v>
       </c>
       <c r="K22">
-        <v>1.039455839432165</v>
+        <v>1.0240113166895</v>
       </c>
       <c r="L22">
-        <v>1.039155933465833</v>
+        <v>0.9831897032682839</v>
       </c>
       <c r="M22">
-        <v>1.047598294138335</v>
+        <v>0.9774270619798726</v>
       </c>
       <c r="N22">
-        <v>1.044954512900648</v>
+        <v>0.9884891347592419</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037241177048564</v>
+        <v>0.958096829426837</v>
       </c>
       <c r="D23">
-        <v>1.03602527516293</v>
+        <v>1.010450444994796</v>
       </c>
       <c r="E23">
-        <v>1.035959143662548</v>
+        <v>0.9701932614957461</v>
       </c>
       <c r="F23">
-        <v>1.044556228995119</v>
+        <v>0.9650329538317259</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040650646175146</v>
+        <v>1.032473652792168</v>
       </c>
       <c r="J23">
-        <v>1.043932563808774</v>
+        <v>0.9900843073546296</v>
       </c>
       <c r="K23">
-        <v>1.039666010275351</v>
+        <v>1.025509597240669</v>
       </c>
       <c r="L23">
-        <v>1.039600129344861</v>
+        <v>0.9860521346716523</v>
       </c>
       <c r="M23">
-        <v>1.048164935132749</v>
+        <v>0.9810007302285675</v>
       </c>
       <c r="N23">
-        <v>1.045415067790121</v>
+        <v>0.9914903406353303</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039571251923205</v>
+        <v>0.9727468206742282</v>
       </c>
       <c r="D24">
-        <v>1.037123274789373</v>
+        <v>1.017415645398242</v>
       </c>
       <c r="E24">
-        <v>1.037979734704616</v>
+        <v>0.9824620668528951</v>
       </c>
       <c r="F24">
-        <v>1.047058000307485</v>
+        <v>0.9800391428424928</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041353334559922</v>
+        <v>1.037884465955259</v>
       </c>
       <c r="J24">
-        <v>1.045736882231444</v>
+        <v>1.001335880314908</v>
       </c>
       <c r="K24">
-        <v>1.040489421043965</v>
+        <v>1.031143672992239</v>
       </c>
       <c r="L24">
-        <v>1.041342902035543</v>
+        <v>0.9968043309973039</v>
       </c>
       <c r="M24">
-        <v>1.050389921280251</v>
+        <v>0.9944261019694824</v>
       </c>
       <c r="N24">
-        <v>1.04722194855191</v>
+        <v>1.002757892119786</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042263883167769</v>
+        <v>0.9884973015285258</v>
       </c>
       <c r="D25">
-        <v>1.038392348746496</v>
+        <v>1.024981911780725</v>
       </c>
       <c r="E25">
-        <v>1.040314817718145</v>
+        <v>0.9956945032171778</v>
       </c>
       <c r="F25">
-        <v>1.049951551080654</v>
+        <v>0.9962055737058982</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042157804398556</v>
+        <v>1.043658011327983</v>
       </c>
       <c r="J25">
-        <v>1.047818050391391</v>
+        <v>1.013418076657976</v>
       </c>
       <c r="K25">
-        <v>1.041436753239799</v>
+        <v>1.037204409973762</v>
       </c>
       <c r="L25">
-        <v>1.043353225485922</v>
+        <v>1.008360026203054</v>
       </c>
       <c r="M25">
-        <v>1.052960260271083</v>
+        <v>1.008863080226585</v>
       </c>
       <c r="N25">
-        <v>1.049306072209357</v>
+        <v>1.014857246567509</v>
       </c>
     </row>
   </sheetData>
